--- a/biology/Histoire de la zoologie et de la botanique/René_Courcelle/René_Courcelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Courcelle/René_Courcelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Courcelle</t>
+          <t>René_Courcelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Courcelle, né le 13 février 1886 à Laval et mort le 27 mars 1955 à Fouras, est un botaniste et météorologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Courcelle</t>
+          <t>René_Courcelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectue ses études au Lycée de Laval, et devient bachelier ès lettres en 1904. Il obtient le diplôme de chirurgien-dentiste en 1907, et se fixe à Mayenne en 1911 pour y exercer jusqu'en 1949. Il se retire à Fouras, en Charente-Maritime. Esprit très cultivé, attiré par les sciences de la nature, botaniste éminent, il a constitué un important herbier et laissé une œuvre considérable qui s'échelonne de 1924 à 1955. Il a collaboré au Bulletin de Mayenne-Sciences.
 Météorologiste, il poursuivit pendant de longues années ses observations dans le petit poste privé qu'il avait installé à Mayenne.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Courcelle</t>
+          <t>René_Courcelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Inventaire des plantes vasculaires
 Inventaire des muscinées</t>
